--- a/ere/src/main/java/test2.xlsx
+++ b/ere/src/main/java/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="16812" windowHeight="6468"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="16848" windowHeight="7584"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="13">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <t>:programmers[n].email</t>
   </si>
   <si>
-    <t>:musicians[n].firstName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>:programmers[1].firstName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,6 +59,14 @@
   </si>
   <si>
     <t>:musicians[1].firstName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:musicians[n].firstName[1].AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:authors[1].firstName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -454,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -462,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -470,7 +474,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -478,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -497,16 +501,160 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
